--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.0469985308269</v>
+        <v>466.9506456704377</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.5848640358147</v>
+        <v>638.9024738148769</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.4862384155732</v>
+        <v>577.9265184192382</v>
       </c>
       <c r="AD2" t="n">
-        <v>330046.9985308269</v>
+        <v>466950.6456704377</v>
       </c>
       <c r="AE2" t="n">
-        <v>451584.8640358147</v>
+        <v>638902.4738148769</v>
       </c>
       <c r="AF2" t="n">
         <v>5.940646803256543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>408486.2384155731</v>
+        <v>577926.5184192382</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.7959287927523</v>
+        <v>368.4696627665841</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.8324952786053</v>
+        <v>504.1564483314905</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.7769027467671</v>
+        <v>456.0404644907516</v>
       </c>
       <c r="AD3" t="n">
-        <v>260795.9287927523</v>
+        <v>368469.6627665841</v>
       </c>
       <c r="AE3" t="n">
-        <v>356832.4952786053</v>
+        <v>504156.4483314905</v>
       </c>
       <c r="AF3" t="n">
         <v>7.288936406734875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>322776.902746767</v>
+        <v>456040.4644907516</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.3402399717469</v>
+        <v>342.158132867529</v>
       </c>
       <c r="AB4" t="n">
-        <v>334.3170958597941</v>
+        <v>468.1558523408281</v>
       </c>
       <c r="AC4" t="n">
-        <v>302.4103414480259</v>
+        <v>423.4757148542841</v>
       </c>
       <c r="AD4" t="n">
-        <v>244340.2399717469</v>
+        <v>342158.132867529</v>
       </c>
       <c r="AE4" t="n">
-        <v>334317.0958597941</v>
+        <v>468155.8523408281</v>
       </c>
       <c r="AF4" t="n">
         <v>7.793452622850251e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>302410.3414480258</v>
+        <v>423475.7148542841</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.4287451604108</v>
+        <v>340.0341482966839</v>
       </c>
       <c r="AB5" t="n">
-        <v>318.0192631608689</v>
+        <v>465.2497229474118</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.6679510277291</v>
+        <v>420.8469423713973</v>
       </c>
       <c r="AD5" t="n">
-        <v>232428.7451604108</v>
+        <v>340034.1482966839</v>
       </c>
       <c r="AE5" t="n">
-        <v>318019.263160869</v>
+        <v>465249.7229474118</v>
       </c>
       <c r="AF5" t="n">
         <v>7.899888608713322e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>287667.9510277291</v>
+        <v>420846.9423713973</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.5602725065982</v>
+        <v>398.7268623078955</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.6114305229681</v>
+        <v>545.5556835973472</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.7137782064059</v>
+        <v>493.4886148470267</v>
       </c>
       <c r="AD2" t="n">
-        <v>282560.2725065982</v>
+        <v>398726.8623078955</v>
       </c>
       <c r="AE2" t="n">
-        <v>386611.4305229681</v>
+        <v>545555.6835973472</v>
       </c>
       <c r="AF2" t="n">
         <v>7.255901957254694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>349713.7782064059</v>
+        <v>493488.6148470266</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.1968691695716</v>
+        <v>335.9350408629514</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.2797090187562</v>
+        <v>459.6411433167221</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.0445929300599</v>
+        <v>415.7736377089695</v>
       </c>
       <c r="AD3" t="n">
-        <v>239196.8691695716</v>
+        <v>335935.0408629514</v>
       </c>
       <c r="AE3" t="n">
-        <v>327279.7090187562</v>
+        <v>459641.1433167221</v>
       </c>
       <c r="AF3" t="n">
         <v>8.545936803728467e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>296044.5929300599</v>
+        <v>415773.6377089695</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.4610386244477</v>
+        <v>323.1650448990465</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.8539838017371</v>
+        <v>442.1686714664463</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.2819544705887</v>
+        <v>399.968714049316</v>
       </c>
       <c r="AD4" t="n">
-        <v>226461.0386244477</v>
+        <v>323165.0448990465</v>
       </c>
       <c r="AE4" t="n">
-        <v>309853.9838017371</v>
+        <v>442168.6714664462</v>
       </c>
       <c r="AF4" t="n">
         <v>8.835967130627129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>280281.9544705887</v>
+        <v>399968.714049316</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.0359781709509</v>
+        <v>305.4893103417335</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.1169797005195</v>
+        <v>417.9839516467574</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.4286223397257</v>
+        <v>378.0921499457507</v>
       </c>
       <c r="AD2" t="n">
-        <v>212035.9781709509</v>
+        <v>305489.3103417334</v>
       </c>
       <c r="AE2" t="n">
-        <v>290116.9797005195</v>
+        <v>417983.9516467574</v>
       </c>
       <c r="AF2" t="n">
         <v>1.23759880341156e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>262428.6223397257</v>
+        <v>378092.1499457507</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.0948984803031</v>
+        <v>324.8532799573904</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.8259911710985</v>
+        <v>444.4785891529468</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.7794404348758</v>
+        <v>402.0581764338066</v>
       </c>
       <c r="AD2" t="n">
-        <v>230094.8984803031</v>
+        <v>324853.2799573904</v>
       </c>
       <c r="AE2" t="n">
-        <v>314825.9911710984</v>
+        <v>444478.5891529468</v>
       </c>
       <c r="AF2" t="n">
         <v>1.033322485426647e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>284779.4404348758</v>
+        <v>402058.1764338066</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.3131358164083</v>
+        <v>312.0373518747147</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.337419602795</v>
+        <v>426.9432709513866</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.9599535916814</v>
+        <v>386.1964043904297</v>
       </c>
       <c r="AD3" t="n">
-        <v>217313.1358164083</v>
+        <v>312037.3518747147</v>
       </c>
       <c r="AE3" t="n">
-        <v>297337.419602795</v>
+        <v>426943.2709513866</v>
       </c>
       <c r="AF3" t="n">
         <v>1.081372873773289e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>268959.9535916814</v>
+        <v>386196.4043904297</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.2034080672331</v>
+        <v>309.898752332623</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.8730882035557</v>
+        <v>424.0171447095437</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.6852004873825</v>
+        <v>383.5495435302644</v>
       </c>
       <c r="AD2" t="n">
-        <v>208203.4080672331</v>
+        <v>309898.752332623</v>
       </c>
       <c r="AE2" t="n">
-        <v>284873.0882035557</v>
+        <v>424017.1447095437</v>
       </c>
       <c r="AF2" t="n">
         <v>1.384101519238259e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>257685.2004873825</v>
+        <v>383549.5435302644</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.3547241858965</v>
+        <v>412.7945487641133</v>
       </c>
       <c r="AB2" t="n">
-        <v>405.4856078788416</v>
+        <v>564.8037128292694</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.7866305655091</v>
+        <v>510.8996391838328</v>
       </c>
       <c r="AD2" t="n">
-        <v>296354.7241858965</v>
+        <v>412794.5487641133</v>
       </c>
       <c r="AE2" t="n">
-        <v>405485.6078788416</v>
+        <v>564803.7128292695</v>
       </c>
       <c r="AF2" t="n">
         <v>6.904998839192778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>366786.6305655091</v>
+        <v>510899.6391838328</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.1066375847547</v>
+        <v>339.128604765321</v>
       </c>
       <c r="AB3" t="n">
-        <v>331.2609825343301</v>
+        <v>464.01071833804</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.6458992890612</v>
+        <v>419.7261866229899</v>
       </c>
       <c r="AD3" t="n">
-        <v>242106.6375847547</v>
+        <v>339128.604765321</v>
       </c>
       <c r="AE3" t="n">
-        <v>331260.9825343301</v>
+        <v>464010.7183380399</v>
       </c>
       <c r="AF3" t="n">
         <v>8.212327438883374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>299645.8992890612</v>
+        <v>419726.1866229899</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.7679028143092</v>
+        <v>324.7557045760944</v>
       </c>
       <c r="AB4" t="n">
-        <v>311.6420930410837</v>
+        <v>444.3450822115356</v>
       </c>
       <c r="AC4" t="n">
-        <v>281.8994090737596</v>
+        <v>401.9374112075055</v>
       </c>
       <c r="AD4" t="n">
-        <v>227767.9028143092</v>
+        <v>324755.7045760945</v>
       </c>
       <c r="AE4" t="n">
-        <v>311642.0930410837</v>
+        <v>444345.0822115355</v>
       </c>
       <c r="AF4" t="n">
         <v>8.605909605543855e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>281899.4090737596</v>
+        <v>401937.4112075056</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.9292851591538</v>
+        <v>324.917086920939</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.8629034849865</v>
+        <v>444.5658926554385</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.0991456788058</v>
+        <v>402.1371478125518</v>
       </c>
       <c r="AD5" t="n">
-        <v>227929.2851591538</v>
+        <v>324917.086920939</v>
       </c>
       <c r="AE5" t="n">
-        <v>311862.9034849865</v>
+        <v>444565.8926554385</v>
       </c>
       <c r="AF5" t="n">
         <v>8.60237019757029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>282099.1456788058</v>
+        <v>402137.1478125518</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.7001522670436</v>
+        <v>316.7506888426789</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.1304643507433</v>
+        <v>433.3922665287068</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.9636270514036</v>
+        <v>392.0299168810726</v>
       </c>
       <c r="AD2" t="n">
-        <v>215700.1522670436</v>
+        <v>316750.6888426789</v>
       </c>
       <c r="AE2" t="n">
-        <v>295130.4643507433</v>
+        <v>433392.2665287068</v>
       </c>
       <c r="AF2" t="n">
         <v>1.462828558936832e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>266963.6270514036</v>
+        <v>392029.9168810726</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.2185579104375</v>
+        <v>366.2115524759957</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.7283139134769</v>
+        <v>501.0668022111122</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.9233660593957</v>
+        <v>453.2456898597566</v>
       </c>
       <c r="AD2" t="n">
-        <v>251218.5579104375</v>
+        <v>366211.5524759957</v>
       </c>
       <c r="AE2" t="n">
-        <v>343728.3139134769</v>
+        <v>501066.8022111122</v>
       </c>
       <c r="AF2" t="n">
         <v>8.550434108682582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>310923.3660593957</v>
+        <v>453245.6898597566</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.8194385472467</v>
+        <v>317.6023911566947</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.5031418031705</v>
+        <v>434.5576032091974</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.5372279189006</v>
+        <v>393.0840354643375</v>
       </c>
       <c r="AD3" t="n">
-        <v>221819.4385472467</v>
+        <v>317602.3911566947</v>
       </c>
       <c r="AE3" t="n">
-        <v>303503.1418031706</v>
+        <v>434557.6032091974</v>
       </c>
       <c r="AF3" t="n">
         <v>9.720408219242414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>274537.2279189005</v>
+        <v>393084.0354643376</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.983519569663</v>
+        <v>317.766472179111</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.7276446967843</v>
+        <v>434.7821061028113</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.7403045714397</v>
+        <v>393.2871121168767</v>
       </c>
       <c r="AD4" t="n">
-        <v>221983.519569663</v>
+        <v>317766.472179111</v>
       </c>
       <c r="AE4" t="n">
-        <v>303727.6446967843</v>
+        <v>434782.1061028113</v>
       </c>
       <c r="AF4" t="n">
         <v>9.718974075934544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>274740.3045714396</v>
+        <v>393287.1121168767</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.6243235986327</v>
+        <v>384.7531639774384</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.2260915852789</v>
+        <v>526.4362530655542</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.8424084585591</v>
+        <v>476.1939159308986</v>
       </c>
       <c r="AD2" t="n">
-        <v>278624.3235986326</v>
+        <v>384753.1639774384</v>
       </c>
       <c r="AE2" t="n">
-        <v>381226.0915852789</v>
+        <v>526436.2530655542</v>
       </c>
       <c r="AF2" t="n">
         <v>7.635099962403925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>344842.4084585591</v>
+        <v>476193.9159308986</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.3424290530536</v>
+        <v>322.8533333873559</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.6916969534708</v>
+        <v>441.7421740244098</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.1351560513498</v>
+        <v>399.5829209245546</v>
       </c>
       <c r="AD3" t="n">
-        <v>226342.4290530536</v>
+        <v>322853.3333873559</v>
       </c>
       <c r="AE3" t="n">
-        <v>309691.6969534708</v>
+        <v>441742.1740244098</v>
       </c>
       <c r="AF3" t="n">
         <v>8.969244048633402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>280135.1560513498</v>
+        <v>399582.9209245546</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.1707036633345</v>
+        <v>321.5801227711515</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.088490582382</v>
+        <v>440.0001110892309</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.6849574462029</v>
+        <v>398.0071180309085</v>
       </c>
       <c r="AD4" t="n">
-        <v>225170.7036633345</v>
+        <v>321580.1227711515</v>
       </c>
       <c r="AE4" t="n">
-        <v>308088.490582382</v>
+        <v>440000.1110892309</v>
       </c>
       <c r="AF4" t="n">
         <v>9.08559500415207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>278684.9574462029</v>
+        <v>398007.1180309085</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.2966252463679</v>
+        <v>442.2134799443934</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.4027525674756</v>
+        <v>605.0559923417733</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.230279340001</v>
+        <v>547.3102976340924</v>
       </c>
       <c r="AD2" t="n">
-        <v>315296.6252463679</v>
+        <v>442213.4799443934</v>
       </c>
       <c r="AE2" t="n">
-        <v>431402.7525674756</v>
+        <v>605055.9923417732</v>
       </c>
       <c r="AF2" t="n">
         <v>6.237306757695679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>390230.279340001</v>
+        <v>547310.2976340924</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.8956638732575</v>
+        <v>365.1853633912586</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.8642248649277</v>
+        <v>499.6627250331076</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.1873584919745</v>
+        <v>451.9756158369861</v>
       </c>
       <c r="AD3" t="n">
-        <v>257895.6638732575</v>
+        <v>365185.3633912586</v>
       </c>
       <c r="AE3" t="n">
-        <v>352864.2248649277</v>
+        <v>499662.7250331076</v>
       </c>
       <c r="AF3" t="n">
         <v>7.567451448858488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>319187.3584919745</v>
+        <v>451975.6158369861</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.7978946455031</v>
+        <v>339.1207485524276</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.1561056552122</v>
+        <v>463.9999691209675</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.8871720629629</v>
+        <v>419.7164632961084</v>
       </c>
       <c r="AD4" t="n">
-        <v>231797.8946455031</v>
+        <v>339120.7485524276</v>
       </c>
       <c r="AE4" t="n">
-        <v>317156.1056552122</v>
+        <v>463999.9691209676</v>
       </c>
       <c r="AF4" t="n">
         <v>8.081530405962071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>286887.1720629628</v>
+        <v>419716.4632961084</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.0809029414565</v>
+        <v>328.7092527091714</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.1750859742946</v>
+        <v>449.7545011854451</v>
       </c>
       <c r="AC5" t="n">
-        <v>285.9997795235219</v>
+        <v>406.8305628267125</v>
       </c>
       <c r="AD5" t="n">
-        <v>231080.9029414565</v>
+        <v>328709.2527091714</v>
       </c>
       <c r="AE5" t="n">
-        <v>316175.0859742946</v>
+        <v>449754.5011854451</v>
       </c>
       <c r="AF5" t="n">
         <v>8.137645308281457e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>285999.7795235219</v>
+        <v>406830.5628267125</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.0088379795184</v>
+        <v>338.6918344420072</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.1812158647463</v>
+        <v>463.4131099127354</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.6235699998687</v>
+        <v>419.1856131070477</v>
       </c>
       <c r="AD2" t="n">
-        <v>234008.8379795184</v>
+        <v>338691.8344420072</v>
       </c>
       <c r="AE2" t="n">
-        <v>320181.2158647462</v>
+        <v>463413.1099127354</v>
       </c>
       <c r="AF2" t="n">
         <v>9.656623661604451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>289623.5699998687</v>
+        <v>419185.6131070477</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.7545145479137</v>
+        <v>313.8504492134918</v>
       </c>
       <c r="AB3" t="n">
-        <v>299.3095775723814</v>
+        <v>429.4240307185108</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.7438915725922</v>
+        <v>388.4404039271478</v>
       </c>
       <c r="AD3" t="n">
-        <v>218754.5145479137</v>
+        <v>313850.4492134918</v>
       </c>
       <c r="AE3" t="n">
-        <v>299309.5775723814</v>
+        <v>429424.0307185108</v>
       </c>
       <c r="AF3" t="n">
         <v>1.040818530679557e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>270743.8915725922</v>
+        <v>388440.4039271478</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.0338766084901</v>
+        <v>307.9417250684756</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.8505924838176</v>
+        <v>421.3394536687877</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.9013429556363</v>
+        <v>381.1274075642752</v>
       </c>
       <c r="AD2" t="n">
-        <v>214033.8766084901</v>
+        <v>307941.7250684756</v>
       </c>
       <c r="AE2" t="n">
-        <v>292850.5924838176</v>
+        <v>421339.4536687877</v>
       </c>
       <c r="AF2" t="n">
         <v>1.175423571791656e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>264901.3429556363</v>
+        <v>381127.4075642753</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.1419001107848</v>
+        <v>308.0497485707703</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.9983950053178</v>
+        <v>421.487256190288</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.0350394119267</v>
+        <v>381.2611040205657</v>
       </c>
       <c r="AD3" t="n">
-        <v>214141.9001107848</v>
+        <v>308049.7485707703</v>
       </c>
       <c r="AE3" t="n">
-        <v>292998.3950053178</v>
+        <v>421487.2561902879</v>
       </c>
       <c r="AF3" t="n">
         <v>1.175065971458906e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>265035.0394119267</v>
+        <v>381261.1040205656</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.2357051517497</v>
+        <v>303.2953793282753</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.6537667332094</v>
+        <v>414.9821184447386</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.2004949608738</v>
+        <v>375.3768074914333</v>
       </c>
       <c r="AD2" t="n">
-        <v>210235.7051517497</v>
+        <v>303295.3793282753</v>
       </c>
       <c r="AE2" t="n">
-        <v>287653.7667332094</v>
+        <v>414982.1184447386</v>
       </c>
       <c r="AF2" t="n">
         <v>1.303986905313928e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>260200.4949608738</v>
+        <v>375376.8074914333</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.6826379670173</v>
+        <v>322.9775079410984</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.6842093309709</v>
+        <v>441.9120751270352</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.6055760194866</v>
+        <v>399.7366069044031</v>
       </c>
       <c r="AD2" t="n">
-        <v>222682.6379670172</v>
+        <v>322977.5079410984</v>
       </c>
       <c r="AE2" t="n">
-        <v>304684.2093309709</v>
+        <v>441912.0751270351</v>
       </c>
       <c r="AF2" t="n">
         <v>1.563094161975357e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>275605.5760194866</v>
+        <v>399736.6069044031</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.3553864341388</v>
+        <v>370.1128537408235</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.7027022557386</v>
+        <v>506.4047347149142</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.1823040053811</v>
+        <v>458.0741775772311</v>
       </c>
       <c r="AD2" t="n">
-        <v>264355.3864341388</v>
+        <v>370112.8537408235</v>
       </c>
       <c r="AE2" t="n">
-        <v>361702.7022557387</v>
+        <v>506404.7347149142</v>
       </c>
       <c r="AF2" t="n">
         <v>8.113427025180649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>327182.3040053811</v>
+        <v>458074.1775772311</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.0845746645849</v>
+        <v>320.1874413602744</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.6024009696639</v>
+        <v>438.0945829421012</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.3406981403823</v>
+        <v>396.2834508157153</v>
       </c>
       <c r="AD3" t="n">
-        <v>224084.5746645849</v>
+        <v>320187.4413602744</v>
       </c>
       <c r="AE3" t="n">
-        <v>306602.4009696639</v>
+        <v>438094.5829421012</v>
       </c>
       <c r="AF3" t="n">
         <v>9.311093568981762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>277340.6981403823</v>
+        <v>396283.4508157153</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.7993368622246</v>
+        <v>319.902203557914</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.212126024671</v>
+        <v>437.7043079971082</v>
       </c>
       <c r="AC4" t="n">
-        <v>276.987670488385</v>
+        <v>395.930423163718</v>
       </c>
       <c r="AD4" t="n">
-        <v>223799.3368622246</v>
+        <v>319902.2035579141</v>
       </c>
       <c r="AE4" t="n">
-        <v>306212.126024671</v>
+        <v>437704.3079971081</v>
       </c>
       <c r="AF4" t="n">
         <v>9.364334019095532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.34895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>276987.6704883851</v>
+        <v>395930.423163718</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.7638058829616</v>
+        <v>427.5665970095571</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.2007491405863</v>
+        <v>585.0154809354598</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.6201864156074</v>
+        <v>529.182424509363</v>
       </c>
       <c r="AD2" t="n">
-        <v>310763.8058829616</v>
+        <v>427566.5970095571</v>
       </c>
       <c r="AE2" t="n">
-        <v>425200.7491405862</v>
+        <v>585015.4809354597</v>
       </c>
       <c r="AF2" t="n">
         <v>6.545503243486184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>384620.1864156074</v>
+        <v>529182.424509363</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.9166691860739</v>
+        <v>351.9821204898553</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.1057917410981</v>
+        <v>481.5974656094407</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.1237653013601</v>
+        <v>435.6344794179632</v>
       </c>
       <c r="AD3" t="n">
-        <v>244916.6691860739</v>
+        <v>351982.1204898553</v>
       </c>
       <c r="AE3" t="n">
-        <v>335105.7917410981</v>
+        <v>481597.4656094408</v>
       </c>
       <c r="AF3" t="n">
         <v>7.887619112463291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>303123.7653013601</v>
+        <v>435634.4794179632</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.8459954144341</v>
+        <v>327.2092833440362</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.4854310155483</v>
+        <v>447.7021769260891</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.4713828625921</v>
+        <v>404.9741095142142</v>
       </c>
       <c r="AD4" t="n">
-        <v>229845.9954144341</v>
+        <v>327209.2833440362</v>
       </c>
       <c r="AE4" t="n">
-        <v>314485.4310155483</v>
+        <v>447702.1769260891</v>
       </c>
       <c r="AF4" t="n">
         <v>8.327759163394353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.66145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>284471.3828625921</v>
+        <v>404974.1095142142</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>229.7350407066668</v>
+        <v>327.0983286362689</v>
       </c>
       <c r="AB5" t="n">
-        <v>314.3336178894049</v>
+        <v>447.5503637999457</v>
       </c>
       <c r="AC5" t="n">
-        <v>284.3340585681368</v>
+        <v>404.8367852197588</v>
       </c>
       <c r="AD5" t="n">
-        <v>229735.0407066668</v>
+        <v>327098.3286362689</v>
       </c>
       <c r="AE5" t="n">
-        <v>314333.6178894049</v>
+        <v>447550.3637999457</v>
       </c>
       <c r="AF5" t="n">
         <v>8.327759163394353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.66145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>284334.0585681368</v>
+        <v>404836.7852197588</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.0371183266497</v>
+        <v>356.3258308117942</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.3753279197318</v>
+        <v>487.5407217028922</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.9858229394381</v>
+        <v>441.0105194912679</v>
       </c>
       <c r="AD2" t="n">
-        <v>248037.1183266497</v>
+        <v>356325.8308117941</v>
       </c>
       <c r="AE2" t="n">
-        <v>339375.3279197318</v>
+        <v>487540.7217028922</v>
       </c>
       <c r="AF2" t="n">
         <v>1.635644590399076e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>306985.8229394381</v>
+        <v>441010.5194912679</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.8882321500028</v>
+        <v>311.3193107551508</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.7560476609925</v>
+        <v>425.9608154138608</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.4340669720437</v>
+        <v>385.3077130305204</v>
       </c>
       <c r="AD2" t="n">
-        <v>216888.2321500028</v>
+        <v>311319.3107551508</v>
       </c>
       <c r="AE2" t="n">
-        <v>296756.0476609925</v>
+        <v>425960.8154138608</v>
       </c>
       <c r="AF2" t="n">
         <v>1.104267217617349e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>268434.0669720437</v>
+        <v>385307.7130305204</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.6323024642934</v>
+        <v>309.9618958429562</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.0376292572985</v>
+        <v>424.1035404460767</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.8796520089824</v>
+        <v>383.6276937789598</v>
       </c>
       <c r="AD3" t="n">
-        <v>215632.3024642934</v>
+        <v>309961.8958429561</v>
       </c>
       <c r="AE3" t="n">
-        <v>295037.6292572985</v>
+        <v>424103.5404460767</v>
       </c>
       <c r="AF3" t="n">
         <v>1.127938166199379e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>266879.6520089824</v>
+        <v>383627.6937789598</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.63634696889</v>
+        <v>352.639289182752</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.826974867261</v>
+        <v>482.4966328072985</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.4898039326765</v>
+        <v>436.4478313604465</v>
       </c>
       <c r="AD2" t="n">
-        <v>247636.34696889</v>
+        <v>352639.289182752</v>
       </c>
       <c r="AE2" t="n">
-        <v>338826.974867261</v>
+        <v>482496.6328072984</v>
       </c>
       <c r="AF2" t="n">
         <v>9.037557802146593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>306489.8039326764</v>
+        <v>436447.8313604465</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.3872431911869</v>
+        <v>315.8352374559263</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.5435489330108</v>
+        <v>432.1397055544871</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.7646558419623</v>
+        <v>390.8968985682521</v>
       </c>
       <c r="AD3" t="n">
-        <v>220387.2431911869</v>
+        <v>315835.2374559264</v>
       </c>
       <c r="AE3" t="n">
-        <v>301543.5489330108</v>
+        <v>432139.7055544871</v>
       </c>
       <c r="AF3" t="n">
         <v>1.006292031768146e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>272764.6558419623</v>
+        <v>390896.8985682522</v>
       </c>
     </row>
   </sheetData>
